--- a/Calculo do imposto/TEstes.xlsx
+++ b/Calculo do imposto/TEstes.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe_tykk233\OneDrive\Documentos\IRPF\Trabalho-de-Engenharia-de-Software---Exerc-cio-do-IRPF\Calculo do imposto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83A33B1B-ECE0-465C-BAFC-40E79074E74B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01FC324-12B9-4C90-BA54-80127A194F13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24510" yWindow="5295" windowWidth="8295" windowHeight="8520" xr2:uid="{50D3BD51-EAFE-4855-978A-08F68F0766A2}"/>
+    <workbookView xWindow="24510" yWindow="5295" windowWidth="8295" windowHeight="8520" activeTab="1" xr2:uid="{50D3BD51-EAFE-4855-978A-08F68F0766A2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="simplificada" sheetId="1" r:id="rId1"/>
+    <sheet name="completa" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
   <si>
     <t xml:space="preserve">    int valor_final = 0, base_cal;</t>
   </si>
@@ -88,6 +89,57 @@
   </si>
   <si>
     <t>return valor_final;</t>
+  </si>
+  <si>
+    <t>int declaracao_completa(int total_rend, int prev, int idade, int dependentes){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    base_cal = total_rend - prev;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if(idade &lt; 65){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if(dependentes &lt;= 2) base_cal = 0.98 * base_cal;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if(3 &lt;= dependentes &lt;= 5) base_cal = 0.965 * base_cal;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if(dependentes &gt; 5) base_cal = 0.95 * base_cal;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if(idade &gt;= 65){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if(dependentes &lt;= 2) base_cal = 0.97 * base_cal;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if(3 &lt;= dependentes &lt;= 5) base_cal = 0.955 * base_cal;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if(5 &lt; dependentes) base_cal = 0.94 * base_cal;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    cout &lt;&lt;"\nbase 2 = " &lt;&lt;base_cal;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if(24000 &lt;= base_cal ) valor_final = (base_cal - 12000) * 0.15 + (base_cal - 24000) * 0.275;</t>
+  </si>
+  <si>
+    <t>idade</t>
+  </si>
+  <si>
+    <t>dependentes</t>
+  </si>
+  <si>
+    <t>valor_final</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   cout &lt;&lt;"\nvlr final 2 = " &lt;&lt;valor_final;</t>
   </si>
 </sst>
 </file>
@@ -154,11 +206,13 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -477,9 +531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694BEEA7-D89A-47C8-91B8-426BBA30FFFA}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -609,4 +661,240 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295C2B1F-6D50-433C-B07E-7B2974D544F4}">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1">
+        <f>D1-D2</f>
+        <v>14800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1">
+        <f>D5*0.98</f>
+        <v>14504</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="5">
+        <f>D5*0.965</f>
+        <v>14282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1">
+        <f>D5*0.95</f>
+        <v>14060</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1">
+        <f>D5*0.97</f>
+        <v>14356</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1">
+        <f>D5*0.955</f>
+        <v>14134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1">
+        <f>D5*0.94</f>
+        <v>13912</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="1">
+        <f>IF(D3&lt;65,IF(D4&lt;=2,D5*0.98,IF(D4&lt;=5,D5*0.95,D5*0.94)),IF(D4&lt;=2,D5*0.97,IF(D4&lt;=5,D5*0.955,D5*0.94)))</f>
+        <v>14504</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="5">
+        <f>(D16-12000)*0.15</f>
+        <v>375.59999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="5">
+        <f>(D16-12000)*0.15+(D16-24000)*0.275</f>
+        <v>-2235.8000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="1">
+        <f>IF(D16&lt;=12000,0,IF(D16&lt;24000,(D16-12000)*0.15,(D16-12000)*0.15+(D16-24000)*0.275))</f>
+        <v>375.59999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/Calculo do imposto/TEstes.xlsx
+++ b/Calculo do imposto/TEstes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe_tykk233\OneDrive\Documentos\IRPF\Trabalho-de-Engenharia-de-Software---Exerc-cio-do-IRPF\Calculo do imposto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01FC324-12B9-4C90-BA54-80127A194F13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2BE07D-DEF5-4280-8FB4-02FA1C2861F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24510" yWindow="5295" windowWidth="8295" windowHeight="8520" activeTab="1" xr2:uid="{50D3BD51-EAFE-4855-978A-08F68F0766A2}"/>
+    <workbookView xWindow="24600" yWindow="4980" windowWidth="8295" windowHeight="8520" activeTab="1" xr2:uid="{50D3BD51-EAFE-4855-978A-08F68F0766A2}"/>
   </bookViews>
   <sheets>
     <sheet name="simplificada" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +172,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -181,7 +189,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -200,23 +208,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="4"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="2" xfId="4" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="3" builtinId="5"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18"/>
     <cellStyle name="Total" xfId="2" builtinId="25"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -665,10 +689,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295C2B1F-6D50-433C-B07E-7B2974D544F4}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,7 +702,7 @@
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -686,10 +710,10 @@
         <v>12</v>
       </c>
       <c r="D1" s="1">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -697,18 +721,18 @@
         <v>13</v>
       </c>
       <c r="D2" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="4">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -716,181 +740,205 @@
         <v>32</v>
       </c>
       <c r="D4" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="1">
         <f>D1-D2</f>
-        <v>14800</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="1">
         <f>D5*0.98</f>
-        <v>14504</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23030</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="5">
         <f>D5*0.965</f>
-        <v>14282</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>22677.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="1">
         <f>D5*0.95</f>
-        <v>14060</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>22325</v>
+      </c>
+      <c r="K9" s="6">
+        <f>13996/14800</f>
+        <v>0.94567567567567568</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="1">
-        <f>D5*0.97</f>
-        <v>14356</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="1">
-        <f>D5*0.955</f>
-        <v>14134</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <f>D5*0.97</f>
+        <v>22795</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="1">
-        <f>D5*0.94</f>
-        <v>13912</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <f>D5*0.955</f>
+        <v>22442.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="1">
+        <f>D5*0.94</f>
+        <v>22090</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="1">
-        <f>IF(D3&lt;65,IF(D4&lt;=2,D5*0.98,IF(D4&lt;=5,D5*0.95,D5*0.94)),IF(D4&lt;=2,D5*0.97,IF(D4&lt;=5,D5*0.955,D5*0.94)))</f>
-        <v>14504</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>29</v>
+      <c r="D17" s="8">
+        <f>IF(D3&lt;65,IF(D4&lt;=2,D7,IF(D4&lt;=5,D8,D9)),IF(D4&lt;=2,D13,IF(D4&lt;=5,D14,D15)))</f>
+        <v>22677.5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="5">
-        <f>(D16-12000)*0.15</f>
-        <v>375.59999999999997</v>
+      <c r="D19" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
         <v>33</v>
       </c>
       <c r="D20" s="5">
-        <f>(D16-12000)*0.15+(D16-24000)*0.275</f>
-        <v>-2235.8000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+        <f>(D17-12000)*0.15</f>
+        <v>1601.625</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="5">
+        <f>(D17-12000)*0.15+(D17-24000)*0.275</f>
+        <v>1237.9375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>34</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="1">
-        <f>IF(D16&lt;=12000,0,IF(D16&lt;24000,(D16-12000)*0.15,(D16-12000)*0.15+(D16-24000)*0.275))</f>
-        <v>375.59999999999997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>8</v>
-      </c>
-    </row>
+      <c r="D23" s="3">
+        <f>IF(D17&lt;=12000,0,IF(D17&lt;24000,(D17-12000)*0.15,(D17-12000)*0.15+(D17-24000)*0.275))</f>
+        <v>1601.625</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>11</v>
       </c>
     </row>
